--- a/Epsitec.Cresus/App.Aider/Samples/EERV Région 8/id.xlsx
+++ b/Epsitec.Cresus/App.Aider/Samples/EERV Région 8/id.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>_id</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Payerne – Corcelles – Ressudens</t>
+  </si>
+  <si>
+    <t>Moudon – Syens</t>
   </si>
 </sst>
 </file>
@@ -457,7 +460,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -604,11 +607,27 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5">
+        <v>8040000000</v>
+      </c>
+      <c r="C7" s="5">
+        <v>8040</v>
+      </c>
+      <c r="D7" s="5">
+        <v>8000</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
